--- a/biology/Zoologie/Abrocoma_bennettii/Abrocoma_bennettii.xlsx
+++ b/biology/Zoologie/Abrocoma_bennettii/Abrocoma_bennettii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rat-chinchilla du Chili ou Rat-chinchilla de Bennett (Abrocoma bennettii)[1] est une espèce de petits rongeurs de la famille des Abrocomidae, aussi appelés rats-chinchillas et originaires de la Cordillère des Andes. Ce rat-chinchilla est endémique du Chili.
-L'espèce a été décrite pour la première fois en 1837 par le zoologiste britannique George Robert Waterhouse (1810-1888). Son nom scientifique rend hommage à Edward Turner Bennett (1797-1836), un médecin et zoologiste britannique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rat-chinchilla du Chili ou Rat-chinchilla de Bennett (Abrocoma bennettii) est une espèce de petits rongeurs de la famille des Abrocomidae, aussi appelés rats-chinchillas et originaires de la Cordillère des Andes. Ce rat-chinchilla est endémique du Chili.
+L'espèce a été décrite pour la première fois en 1837 par le zoologiste britannique George Robert Waterhouse (1810-1888). Son nom scientifique rend hommage à Edward Turner Bennett (1797-1836), un médecin et zoologiste britannique.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012) :
 sous-espèce Abrocoma bennettii bennettii
 sous-espèce Abrocoma bennettii murrayi
-Selon NCBI  (27 sept. 2012)[4] :
+Selon NCBI  (27 sept. 2012) :
 sous-espèce Abrocoma bennettii bennettii</t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du Chili.
 </t>
